--- a/natmiOut/OldD4/LR-pairs_lrc2p/Il11-Il11ra1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Il11-Il11ra1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.18245562311747</v>
+        <v>1.341734333333333</v>
       </c>
       <c r="H2">
-        <v>1.18245562311747</v>
+        <v>4.025202999999999</v>
       </c>
       <c r="I2">
-        <v>0.4523198461314111</v>
+        <v>0.2468325318068303</v>
       </c>
       <c r="J2">
-        <v>0.4523198461314111</v>
+        <v>0.3286367187168318</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.86581743825596</v>
+        <v>3.082786</v>
       </c>
       <c r="N2">
-        <v>2.86581743825596</v>
+        <v>9.248358</v>
       </c>
       <c r="O2">
-        <v>0.05576779328720246</v>
+        <v>0.05504138895091651</v>
       </c>
       <c r="P2">
-        <v>0.05576779328720246</v>
+        <v>0.05701957962265202</v>
       </c>
       <c r="Q2">
-        <v>3.388701944693863</v>
+        <v>4.136279818519332</v>
       </c>
       <c r="R2">
-        <v>3.388701944693863</v>
+        <v>37.22651836667399</v>
       </c>
       <c r="S2">
-        <v>0.02522487967875576</v>
+        <v>0.01358600538891922</v>
       </c>
       <c r="T2">
-        <v>0.02522487967875576</v>
+        <v>0.01873872754980149</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.18245562311747</v>
+        <v>1.341734333333333</v>
       </c>
       <c r="H3">
-        <v>1.18245562311747</v>
+        <v>4.025202999999999</v>
       </c>
       <c r="I3">
-        <v>0.4523198461314111</v>
+        <v>0.2468325318068303</v>
       </c>
       <c r="J3">
-        <v>0.4523198461314111</v>
+        <v>0.3286367187168318</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>35.2815566542097</v>
+        <v>37.79416233333333</v>
       </c>
       <c r="N3">
-        <v>35.2815566542097</v>
+        <v>113.382487</v>
       </c>
       <c r="O3">
-        <v>0.6865666082135675</v>
+        <v>0.674793251644155</v>
       </c>
       <c r="P3">
-        <v>0.6865666082135675</v>
+        <v>0.6990453597612472</v>
       </c>
       <c r="Q3">
-        <v>41.71887505810786</v>
+        <v>50.70972520220677</v>
       </c>
       <c r="R3">
-        <v>41.71887505810786</v>
+        <v>456.3875268198609</v>
       </c>
       <c r="S3">
-        <v>0.3105477025861257</v>
+        <v>0.1665609267494903</v>
       </c>
       <c r="T3">
-        <v>0.3105477025861257</v>
+        <v>0.2297319732661635</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.18245562311747</v>
+        <v>1.341734333333333</v>
       </c>
       <c r="H4">
-        <v>1.18245562311747</v>
+        <v>4.025202999999999</v>
       </c>
       <c r="I4">
-        <v>0.4523198461314111</v>
+        <v>0.2468325318068303</v>
       </c>
       <c r="J4">
-        <v>0.4523198461314111</v>
+        <v>0.3286367187168318</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.56904138527688</v>
+        <v>5.310705333333334</v>
       </c>
       <c r="N4">
-        <v>4.56904138527688</v>
+        <v>15.932116</v>
       </c>
       <c r="O4">
-        <v>0.08891192861533434</v>
+        <v>0.09481962025768469</v>
       </c>
       <c r="P4">
-        <v>0.08891192861533434</v>
+        <v>0.09822744284113227</v>
       </c>
       <c r="Q4">
-        <v>5.402688678277082</v>
+        <v>7.125555679949778</v>
       </c>
       <c r="R4">
-        <v>5.402688678277082</v>
+        <v>64.130001119548</v>
       </c>
       <c r="S4">
-        <v>0.04021662987053504</v>
+        <v>0.02340456693316652</v>
       </c>
       <c r="T4">
-        <v>0.04021662987053504</v>
+        <v>0.03228114450325486</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.18245562311747</v>
+        <v>1.341734333333333</v>
       </c>
       <c r="H5">
-        <v>1.18245562311747</v>
+        <v>4.025202999999999</v>
       </c>
       <c r="I5">
-        <v>0.4523198461314111</v>
+        <v>0.2468325318068303</v>
       </c>
       <c r="J5">
-        <v>0.4523198461314111</v>
+        <v>0.3286367187168318</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.33404258840977</v>
+        <v>3.991513</v>
       </c>
       <c r="N5">
-        <v>3.33404258840977</v>
+        <v>11.974539</v>
       </c>
       <c r="O5">
-        <v>0.06487928902907283</v>
+        <v>0.07126619218318742</v>
       </c>
       <c r="P5">
-        <v>0.06487928902907283</v>
+        <v>0.07382750321246777</v>
       </c>
       <c r="Q5">
-        <v>3.942357406378258</v>
+        <v>5.355550034046332</v>
       </c>
       <c r="R5">
-        <v>3.942357406378258</v>
+        <v>48.19995030641699</v>
       </c>
       <c r="S5">
-        <v>0.02934619003074557</v>
+        <v>0.01759081464880829</v>
       </c>
       <c r="T5">
-        <v>0.02934619003074557</v>
+        <v>0.02426242840680177</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.18245562311747</v>
+        <v>1.341734333333333</v>
       </c>
       <c r="H6">
-        <v>1.18245562311747</v>
+        <v>4.025202999999999</v>
       </c>
       <c r="I6">
-        <v>0.4523198461314111</v>
+        <v>0.2468325318068303</v>
       </c>
       <c r="J6">
-        <v>0.4523198461314111</v>
+        <v>0.3286367187168318</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.33793780415021</v>
+        <v>5.82934</v>
       </c>
       <c r="N6">
-        <v>5.33793780415021</v>
+        <v>11.65868</v>
       </c>
       <c r="O6">
-        <v>0.1038743808548228</v>
+        <v>0.1040795469640564</v>
       </c>
       <c r="P6">
-        <v>0.1038743808548228</v>
+        <v>0.07188011456250079</v>
       </c>
       <c r="Q6">
-        <v>6.311874572368736</v>
+        <v>7.821425618673333</v>
       </c>
       <c r="R6">
-        <v>6.311874572368736</v>
+        <v>46.92855371203999</v>
       </c>
       <c r="S6">
-        <v>0.04698444396524906</v>
+        <v>0.02569021808644594</v>
       </c>
       <c r="T6">
-        <v>0.04698444396524906</v>
+        <v>0.02362244499081022</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>1.43174676758182</v>
+        <v>0.034833</v>
       </c>
       <c r="H7">
-        <v>1.43174676758182</v>
+        <v>0.104499</v>
       </c>
       <c r="I7">
-        <v>0.5476801538685888</v>
+        <v>0.006408062584988127</v>
       </c>
       <c r="J7">
-        <v>0.5476801538685888</v>
+        <v>0.008531795407384477</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.86581743825596</v>
+        <v>3.082786</v>
       </c>
       <c r="N7">
-        <v>2.86581743825596</v>
+        <v>9.248358</v>
       </c>
       <c r="O7">
-        <v>0.05576779328720246</v>
+        <v>0.05504138895091651</v>
       </c>
       <c r="P7">
-        <v>0.05576779328720246</v>
+        <v>0.05701957962265202</v>
       </c>
       <c r="Q7">
-        <v>4.103124853702583</v>
+        <v>0.107382684738</v>
       </c>
       <c r="R7">
-        <v>4.103124853702583</v>
+        <v>0.9664441626420001</v>
       </c>
       <c r="S7">
-        <v>0.0305429136084467</v>
+        <v>0.000352708665162147</v>
       </c>
       <c r="T7">
-        <v>0.0305429136084467</v>
+        <v>0.000486479387555536</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>1.43174676758182</v>
+        <v>0.034833</v>
       </c>
       <c r="H8">
-        <v>1.43174676758182</v>
+        <v>0.104499</v>
       </c>
       <c r="I8">
-        <v>0.5476801538685888</v>
+        <v>0.006408062584988127</v>
       </c>
       <c r="J8">
-        <v>0.5476801538685888</v>
+        <v>0.008531795407384477</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>35.2815566542097</v>
+        <v>37.79416233333333</v>
       </c>
       <c r="N8">
-        <v>35.2815566542097</v>
+        <v>113.382487</v>
       </c>
       <c r="O8">
-        <v>0.6865666082135675</v>
+        <v>0.674793251644155</v>
       </c>
       <c r="P8">
-        <v>0.6865666082135675</v>
+        <v>0.6990453597612472</v>
       </c>
       <c r="Q8">
-        <v>50.51425469491959</v>
+        <v>1.316484056557</v>
       </c>
       <c r="R8">
-        <v>50.51425469491959</v>
+        <v>11.848356509013</v>
       </c>
       <c r="S8">
-        <v>0.3760189056274418</v>
+        <v>0.004324117388463388</v>
       </c>
       <c r="T8">
-        <v>0.3760189056274418</v>
+        <v>0.005964111989964438</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>1.43174676758182</v>
+        <v>0.034833</v>
       </c>
       <c r="H9">
-        <v>1.43174676758182</v>
+        <v>0.104499</v>
       </c>
       <c r="I9">
-        <v>0.5476801538685888</v>
+        <v>0.006408062584988127</v>
       </c>
       <c r="J9">
-        <v>0.5476801538685888</v>
+        <v>0.008531795407384477</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.56904138527688</v>
+        <v>5.310705333333334</v>
       </c>
       <c r="N9">
-        <v>4.56904138527688</v>
+        <v>15.932116</v>
       </c>
       <c r="O9">
-        <v>0.08891192861533434</v>
+        <v>0.09481962025768469</v>
       </c>
       <c r="P9">
-        <v>0.08891192861533434</v>
+        <v>0.09822744284113227</v>
       </c>
       <c r="Q9">
-        <v>6.541710234317734</v>
+        <v>0.184987798876</v>
       </c>
       <c r="R9">
-        <v>6.541710234317734</v>
+        <v>1.664890189884</v>
       </c>
       <c r="S9">
-        <v>0.0486952987447993</v>
+        <v>0.0006076100608960515</v>
       </c>
       <c r="T9">
-        <v>0.0486952987447993</v>
+        <v>0.0008380564457110936</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.43174676758182</v>
+        <v>0.034833</v>
       </c>
       <c r="H10">
-        <v>1.43174676758182</v>
+        <v>0.104499</v>
       </c>
       <c r="I10">
-        <v>0.5476801538685888</v>
+        <v>0.006408062584988127</v>
       </c>
       <c r="J10">
-        <v>0.5476801538685888</v>
+        <v>0.008531795407384477</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.33404258840977</v>
+        <v>3.991513</v>
       </c>
       <c r="N10">
-        <v>3.33404258840977</v>
+        <v>11.974539</v>
       </c>
       <c r="O10">
-        <v>0.06487928902907283</v>
+        <v>0.07126619218318742</v>
       </c>
       <c r="P10">
-        <v>0.06487928902907283</v>
+        <v>0.07382750321246777</v>
       </c>
       <c r="Q10">
-        <v>4.773504698935812</v>
+        <v>0.139036372329</v>
       </c>
       <c r="R10">
-        <v>4.773504698935812</v>
+        <v>1.251327350961</v>
       </c>
       <c r="S10">
-        <v>0.03553309899832725</v>
+        <v>0.0004566782197036566</v>
       </c>
       <c r="T10">
-        <v>0.03553309899832725</v>
+        <v>0.0006298811528467952</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.034833</v>
+      </c>
+      <c r="H11">
+        <v>0.104499</v>
+      </c>
+      <c r="I11">
+        <v>0.006408062584988127</v>
+      </c>
+      <c r="J11">
+        <v>0.008531795407384477</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5.82934</v>
+      </c>
+      <c r="N11">
+        <v>11.65868</v>
+      </c>
+      <c r="O11">
+        <v>0.1040795469640564</v>
+      </c>
+      <c r="P11">
+        <v>0.07188011456250079</v>
+      </c>
+      <c r="Q11">
+        <v>0.20305340022</v>
+      </c>
+      <c r="R11">
+        <v>1.21832040132</v>
+      </c>
+      <c r="S11">
+        <v>0.0006669482507628846</v>
+      </c>
+      <c r="T11">
+        <v>0.0006132664313066143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4.059241</v>
+      </c>
+      <c r="H12">
+        <v>8.118482</v>
+      </c>
+      <c r="I12">
+        <v>0.7467594056081815</v>
+      </c>
+      <c r="J12">
+        <v>0.6628314858757838</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.082786</v>
+      </c>
+      <c r="N12">
+        <v>9.248358</v>
+      </c>
+      <c r="O12">
+        <v>0.05504138895091651</v>
+      </c>
+      <c r="P12">
+        <v>0.05701957962265202</v>
+      </c>
+      <c r="Q12">
+        <v>12.513771325426</v>
+      </c>
+      <c r="R12">
+        <v>75.082627952556</v>
+      </c>
+      <c r="S12">
+        <v>0.04110267489683515</v>
+      </c>
+      <c r="T12">
+        <v>0.037794372685295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.059241</v>
+      </c>
+      <c r="H13">
+        <v>8.118482</v>
+      </c>
+      <c r="I13">
+        <v>0.7467594056081815</v>
+      </c>
+      <c r="J13">
+        <v>0.6628314858757838</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>37.79416233333333</v>
+      </c>
+      <c r="N13">
+        <v>113.382487</v>
+      </c>
+      <c r="O13">
+        <v>0.674793251644155</v>
+      </c>
+      <c r="P13">
+        <v>0.6990453597612472</v>
+      </c>
+      <c r="Q13">
+        <v>153.4156133041223</v>
+      </c>
+      <c r="R13">
+        <v>920.493679824734</v>
+      </c>
+      <c r="S13">
+        <v>0.5039082075062012</v>
+      </c>
+      <c r="T13">
+        <v>0.4633492745051193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.43174676758182</v>
-      </c>
-      <c r="H11">
-        <v>1.43174676758182</v>
-      </c>
-      <c r="I11">
-        <v>0.5476801538685888</v>
-      </c>
-      <c r="J11">
-        <v>0.5476801538685888</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>5.33793780415021</v>
-      </c>
-      <c r="N11">
-        <v>5.33793780415021</v>
-      </c>
-      <c r="O11">
-        <v>0.1038743808548228</v>
-      </c>
-      <c r="P11">
-        <v>0.1038743808548228</v>
-      </c>
-      <c r="Q11">
-        <v>7.642575196644861</v>
-      </c>
-      <c r="R11">
-        <v>7.642575196644861</v>
-      </c>
-      <c r="S11">
-        <v>0.05688993688957377</v>
-      </c>
-      <c r="T11">
-        <v>0.05688993688957377</v>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.059241</v>
+      </c>
+      <c r="H14">
+        <v>8.118482</v>
+      </c>
+      <c r="I14">
+        <v>0.7467594056081815</v>
+      </c>
+      <c r="J14">
+        <v>0.6628314858757838</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>5.310705333333334</v>
+      </c>
+      <c r="N14">
+        <v>15.932116</v>
+      </c>
+      <c r="O14">
+        <v>0.09481962025768469</v>
+      </c>
+      <c r="P14">
+        <v>0.09822744284113227</v>
+      </c>
+      <c r="Q14">
+        <v>21.55743282798534</v>
+      </c>
+      <c r="R14">
+        <v>129.344596967912</v>
+      </c>
+      <c r="S14">
+        <v>0.07080744326362211</v>
+      </c>
+      <c r="T14">
+        <v>0.06510824189216632</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.059241</v>
+      </c>
+      <c r="H15">
+        <v>8.118482</v>
+      </c>
+      <c r="I15">
+        <v>0.7467594056081815</v>
+      </c>
+      <c r="J15">
+        <v>0.6628314858757838</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.991513</v>
+      </c>
+      <c r="N15">
+        <v>11.974539</v>
+      </c>
+      <c r="O15">
+        <v>0.07126619218318742</v>
+      </c>
+      <c r="P15">
+        <v>0.07382750321246777</v>
+      </c>
+      <c r="Q15">
+        <v>16.202513221633</v>
+      </c>
+      <c r="R15">
+        <v>97.215079329798</v>
+      </c>
+      <c r="S15">
+        <v>0.05321869931467547</v>
+      </c>
+      <c r="T15">
+        <v>0.04893519365281921</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.059241</v>
+      </c>
+      <c r="H16">
+        <v>8.118482</v>
+      </c>
+      <c r="I16">
+        <v>0.7467594056081815</v>
+      </c>
+      <c r="J16">
+        <v>0.6628314858757838</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.82934</v>
+      </c>
+      <c r="N16">
+        <v>11.65868</v>
+      </c>
+      <c r="O16">
+        <v>0.1040795469640564</v>
+      </c>
+      <c r="P16">
+        <v>0.07188011456250079</v>
+      </c>
+      <c r="Q16">
+        <v>23.66269593094</v>
+      </c>
+      <c r="R16">
+        <v>94.65078372376</v>
+      </c>
+      <c r="S16">
+        <v>0.0777223806268476</v>
+      </c>
+      <c r="T16">
+        <v>0.04764440314038396</v>
       </c>
     </row>
   </sheetData>
